--- a/survey_materials/CSV_Data_Extracted_From_Raw_Data_Collected/Analysis.xlsx
+++ b/survey_materials/CSV_Data_Extracted_From_Raw_Data_Collected/Analysis.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\these\DIC3560\VISSOFT\Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Softwares\SIMDGiraffe\survey_materials\CSV_Data_Extracted_From_Raw_Data_Collected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99789F67-03C3-488A-9861-78DDA1FF38BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A054D-A787-48E5-BB93-15E47ADAE699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="96" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionnaireGroup1" sheetId="2" r:id="rId1"/>
-    <sheet name="QuestionnaireGroup2" sheetId="1" r:id="rId2"/>
-    <sheet name="QuestionnaireGroup3" sheetId="3" r:id="rId3"/>
-    <sheet name="Group1" sheetId="5" r:id="rId4"/>
-    <sheet name="Group2" sheetId="6" r:id="rId5"/>
-    <sheet name="Group3" sheetId="7" r:id="rId6"/>
+    <sheet name="DonneBrute" sheetId="8" r:id="rId2"/>
+    <sheet name="QuestionnaireGroup2" sheetId="1" r:id="rId3"/>
+    <sheet name="QuestionnaireGroup3" sheetId="3" r:id="rId4"/>
+    <sheet name="Group1" sheetId="5" r:id="rId5"/>
+    <sheet name="Group2" sheetId="6" r:id="rId6"/>
+    <sheet name="Group3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="228">
   <si>
     <t>QuestionnaireGroupe2_Id</t>
   </si>
@@ -693,6 +694,39 @@
   </si>
   <si>
     <t>UnderstandAlgebra</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Q7( S11)</t>
+  </si>
+  <si>
+    <t>Q8(S12)</t>
+  </si>
+  <si>
+    <t>Q9(S21)</t>
+  </si>
+  <si>
+    <t>Q10(S22)</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Grpe</t>
   </si>
 </sst>
 </file>
@@ -703,9 +737,17 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -738,31 +780,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1077,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB45589-63FA-4EC7-8F3C-688269502CEF}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AB27"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,8 +1132,8 @@
     <col min="18" max="18" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="15.44140625" customWidth="1"/>
     <col min="21" max="21" width="12.109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" customWidth="1"/>
     <col min="26" max="26" width="11.44140625" style="3"/>
     <col min="27" max="27" width="9.88671875" style="3" customWidth="1"/>
     <col min="28" max="28" width="13.109375" customWidth="1"/>
@@ -1204,60 +1233,60 @@
       <c r="AE1" t="s">
         <v>185</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AF1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>44710</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="1">
         <v>44715.444444444402</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" t="s">
         <v>142</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="1">
         <v>44715.447916666701</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="2">
         <v>44710.173611111102</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="2">
         <v>44710.173611111102</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="2">
         <v>44710.173611111102</v>
       </c>
       <c r="R2" s="4">
@@ -1321,55 +1350,55 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>44709</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="1">
         <v>44715.993750000001</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="1">
         <v>44715</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="2">
         <v>44710.000694444403</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="2">
         <v>44710.000694444403</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="2">
         <v>44710.000694444403</v>
       </c>
       <c r="R3" s="4">
@@ -1415,73 +1444,73 @@
         <f t="shared" ref="AB3:AB27" si="8">(Z3+AA3)/2</f>
         <v>1</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3">
         <f t="shared" ref="AC3:AC27" si="9">IF(GESTEP(Z3,0.51),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3">
         <f t="shared" ref="AD3:AD27" si="10">IF(GESTEP(AA3,0.51),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3">
         <f t="shared" ref="AE3:AE27" si="11">IF(GESTEP(AB3,0.51),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3">
         <f t="shared" ref="AF3:AF27" si="12">IF(GESTEP(U3,0.51),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>44709</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="1">
         <v>44715.552777777797</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="1">
         <v>44715.572916666701</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="2">
         <v>44709.345833333296</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="2">
         <v>44709.345833333296</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="2">
         <v>44709.345833333296</v>
       </c>
       <c r="R4" s="4">
@@ -1527,73 +1556,73 @@
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>44709</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="1">
         <v>44715.493055555598</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="1">
         <v>44715.520833333299</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="2">
         <v>44709.339583333298</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="2">
         <v>44709.339583333298</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="2">
         <v>44709.339583333298</v>
       </c>
       <c r="R5" s="4">
@@ -1639,73 +1668,73 @@
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AC5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AE5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>44709</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="1">
         <v>44715.513888888898</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" t="s">
         <v>153</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="1">
         <v>44715.524305555598</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="2">
         <v>44709.273611111101</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="2">
         <v>44709.273611111101</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="2">
         <v>44709.273611111101</v>
       </c>
       <c r="R6" s="4">
@@ -1751,73 +1780,73 @@
         <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AE6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AF6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>44709</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="1">
         <v>44715.438194444403</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" t="s">
         <v>150</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="1">
         <v>44715.447916666701</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" t="s">
         <v>155</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="2">
         <v>44709.160416666702</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="2">
         <v>44709.160416666702</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="2">
         <v>44709.160416666702</v>
       </c>
       <c r="R7" s="4">
@@ -1863,73 +1892,73 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>44709</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="1">
         <v>44715.301388888904</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" t="s">
         <v>145</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="1">
         <v>44715.3125</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="2">
         <v>44709.104166666701</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="2">
         <v>44709.104166666701</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="2">
         <v>44709.104166666701</v>
       </c>
       <c r="R8" s="4">
@@ -1975,73 +2004,73 @@
         <f t="shared" si="8"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE8">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AF8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>44708</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="1">
         <v>44715.570138888899</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="1">
         <v>44715.333333333299</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="2">
         <v>44708.695833333302</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="2">
         <v>44708.695833333302</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="2">
         <v>44708.695833333302</v>
       </c>
       <c r="R9" s="4">
@@ -2087,73 +2116,73 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AF9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>44706</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="1">
         <v>44715.447916666701</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="1">
         <v>44715.46875</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="2">
         <v>44706.177083333299</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="2">
         <v>44706.177083333299</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="2">
         <v>44706.177083333299</v>
       </c>
       <c r="R10" s="4">
@@ -2199,73 +2228,73 @@
         <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AD10">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AE10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AF10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>44702</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="1">
         <v>44715.672916666699</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="1">
         <v>44715.697916666701</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="2">
         <v>44702.702083333301</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="2">
         <v>44702.702083333301</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="2">
         <v>44702.702083333301</v>
       </c>
       <c r="R11" s="4">
@@ -2311,73 +2340,73 @@
         <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AD11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AE11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AF11">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>44705</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="1">
         <v>44715.387499999997</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" t="s">
         <v>152</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="1">
         <v>44715.460416666698</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="2">
         <v>44705.256944444402</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="2">
         <v>44705.256944444402</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="2">
         <v>44705.256944444402</v>
       </c>
       <c r="R12" s="4">
@@ -2423,73 +2452,73 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AD12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AE12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AF12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>44704</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="1">
         <v>44715.617361111101</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="1">
         <v>44715.631249999999</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" t="s">
         <v>104</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="2">
         <v>44704.425000000003</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="2">
         <v>44704.425000000003</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="2">
         <v>44704.425000000003</v>
       </c>
       <c r="R13" s="4">
@@ -2535,73 +2564,73 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AF13">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>44704</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="1">
         <v>44715.627083333296</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="1">
         <v>44715.635416666701</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="2">
         <v>44704.383333333302</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="2">
         <v>44704.383333333302</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="2">
         <v>44704.383333333302</v>
       </c>
       <c r="R14" s="4">
@@ -2647,73 +2676,73 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AC14">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AD14">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="AE14">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AF14">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>44704</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="1">
         <v>44715.098611111098</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="1">
         <v>44715.103472222203</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="2">
         <v>44703.895833333299</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="2">
         <v>44703.895833333299</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="2">
         <v>44703.895833333299</v>
       </c>
       <c r="R15" s="4">
@@ -2759,73 +2788,73 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AC15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AD15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="13">
+      <c r="AE15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AF15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>44702</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="1">
         <v>44715.206250000003</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" t="s">
         <v>145</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="1">
         <v>44715.211805555598</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="2">
         <v>44702.004861111098</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="2">
         <v>44702.004861111098</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="2">
         <v>44702.004861111098</v>
       </c>
       <c r="R16" s="4">
@@ -2871,73 +2900,73 @@
         <f t="shared" si="8"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AD16">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="AE16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AF16">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>44700</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="1">
         <v>44715.379166666702</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="1">
         <v>44715.386805555601</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" t="s">
         <v>113</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="2">
         <v>44700.179166666698</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="2">
         <v>44700.179166666698</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="2">
         <v>44700.179166666698</v>
       </c>
       <c r="R17" s="4">
@@ -2983,73 +3012,73 @@
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AD17">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="13">
+      <c r="AE17">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AF17">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>44699</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="1">
         <v>44715.694444444402</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="1">
         <v>44715.7</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="2">
         <v>44699.493750000001</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="2">
         <v>44699.493750000001</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="2">
         <v>44699.493750000001</v>
       </c>
       <c r="R18" s="4">
@@ -3095,73 +3124,73 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AC18">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AD18">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AE18">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AF18">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>44698</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="1">
         <v>44715.823611111096</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="1">
         <v>44715.834027777797</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="2">
         <v>44698.629861111098</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="2">
         <v>44698.629861111098</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="2">
         <v>44698.629861111098</v>
       </c>
       <c r="R19" s="4">
@@ -3207,73 +3236,73 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AC19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AD19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AE19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AF19">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>44698</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="1">
         <v>44715.477083333302</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="1">
         <v>44715.489583333299</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="2">
         <v>44698.493750000001</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="2">
         <v>44698.493750000001</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="2">
         <v>44698.493750000001</v>
       </c>
       <c r="R20" s="4">
@@ -3319,73 +3348,73 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AC20">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AD20">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="AE20">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AF20">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>44698</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="1">
         <v>44715.420833333301</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" t="s">
         <v>152</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" t="s">
         <v>122</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="1">
         <v>44715.427083333299</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="2">
         <v>44698.470138888901</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="2">
         <v>44698.470138888901</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="2">
         <v>44698.470138888901</v>
       </c>
       <c r="R21" s="4">
@@ -3431,73 +3460,73 @@
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AC21">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AD21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AE21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AF21">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>44698</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="1">
         <v>44715.644444444399</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" t="s">
         <v>145</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="1">
         <v>44715.660416666702</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="2">
         <v>44698.452083333301</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="2">
         <v>44698.452083333301</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="2">
         <v>44698.452083333301</v>
       </c>
       <c r="R22" s="4">
@@ -3543,73 +3572,73 @@
         <f t="shared" si="8"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AC22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD22" s="13">
+      <c r="AD22">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AE22">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AF22" s="18">
+      <c r="AF22">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>44698</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="1">
         <v>44715.441666666702</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" t="s">
         <v>127</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="1">
         <v>44715.460416666698</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="2">
         <v>44698.252083333296</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="2">
         <v>44698.252083333296</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="2">
         <v>44698.252083333296</v>
       </c>
       <c r="R23" s="4">
@@ -3655,73 +3684,73 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="13">
+      <c r="AC23">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="13">
+      <c r="AD23">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="13">
+      <c r="AE23">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AF23">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>44698</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="1">
         <v>44715.427083333299</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="1">
         <v>44715.445138888899</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" t="s">
         <v>131</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="2">
         <v>44698.237500000003</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="2">
         <v>44698.237500000003</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="2">
         <v>44698.237500000003</v>
       </c>
       <c r="R24" s="4">
@@ -3767,73 +3796,73 @@
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC24" s="13">
+      <c r="AC24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="13">
+      <c r="AD24">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE24" s="13">
+      <c r="AE24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AF24">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <v>44696</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="1">
         <v>44715.554861111101</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="1">
         <v>44715.579861111102</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" t="s">
         <v>134</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="2">
         <v>44696.35</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="2">
         <v>44696.35</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="2">
         <v>44696.35</v>
       </c>
       <c r="R25" s="4">
@@ -3879,73 +3908,73 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="AC25" s="13">
+      <c r="AC25">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD25" s="13">
+      <c r="AD25">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="13">
+      <c r="AE25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AF25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>44696</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="1">
         <v>44715.2409722222</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="1">
         <v>44715.245833333298</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" t="s">
         <v>137</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="2">
         <v>44696.079166666699</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="2">
         <v>44696.079166666699</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="2">
         <v>44696.079166666699</v>
       </c>
       <c r="R26" s="4">
@@ -3991,73 +4020,73 @@
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AC26">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD26" s="13">
+      <c r="AD26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="13">
+      <c r="AE26">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AF26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>44695</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="1">
         <v>44715.870833333298</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" t="s">
         <v>140</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="1">
         <v>44715.877777777801</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="2">
         <v>44695.711111111101</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="2">
         <v>44695.711111111101</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="2">
         <v>44695.711111111101</v>
       </c>
       <c r="R27" s="4">
@@ -4103,92 +4132,50 @@
         <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AC27">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AD27" s="13">
+      <c r="AD27">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="13">
+      <c r="AE27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="18">
+      <c r="AF27">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
       <c r="L28" s="1"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="K29" s="6"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="K30" s="6"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="K31" s="6"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="K32" s="6"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
-      <c r="E33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4196,12 +4183,1969 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBA1FAB-0F14-4DB9-A8EB-2840501C1994}">
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection sqref="A1:H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="5">
+        <f>QuestionnaireGroup1!V2</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <f>QuestionnaireGroup1!W2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <f>QuestionnaireGroup1!X2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <f>QuestionnaireGroup1!Y2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <f>QuestionnaireGroup1!Z2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <f>QuestionnaireGroup1!AA2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <f>QuestionnaireGroup1!AB2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="5">
+        <f>QuestionnaireGroup1!V3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <f>QuestionnaireGroup1!W3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <f>QuestionnaireGroup1!X3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <f>QuestionnaireGroup1!Y3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <f>QuestionnaireGroup1!Z3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <f>QuestionnaireGroup1!AA3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <f>QuestionnaireGroup1!AB3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="5">
+        <f>QuestionnaireGroup1!V4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <f>QuestionnaireGroup1!W4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <f>QuestionnaireGroup1!X4</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <f>QuestionnaireGroup1!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f>QuestionnaireGroup1!Z4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="5">
+        <f>QuestionnaireGroup1!AA4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="5">
+        <f>QuestionnaireGroup1!AB4</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="5">
+        <f>QuestionnaireGroup1!V5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <f>QuestionnaireGroup1!W5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <f>QuestionnaireGroup1!X5</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>QuestionnaireGroup1!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f>QuestionnaireGroup1!Z5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="5">
+        <f>QuestionnaireGroup1!AA5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="5">
+        <f>QuestionnaireGroup1!AB5</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="5">
+        <f>QuestionnaireGroup1!V6</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <f>QuestionnaireGroup1!W6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <f>QuestionnaireGroup1!X6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <f>QuestionnaireGroup1!Y6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f>QuestionnaireGroup1!Z6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" s="5">
+        <f>QuestionnaireGroup1!AA6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <f>QuestionnaireGroup1!AB6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="5">
+        <f>QuestionnaireGroup1!V7</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <f>QuestionnaireGroup1!W7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <f>QuestionnaireGroup1!X7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f>QuestionnaireGroup1!Y7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f>QuestionnaireGroup1!Z7</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <f>QuestionnaireGroup1!AA7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <f>QuestionnaireGroup1!AB7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="5">
+        <f>QuestionnaireGroup1!V8</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <f>QuestionnaireGroup1!W8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <f>QuestionnaireGroup1!X8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f>QuestionnaireGroup1!Y8</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <f>QuestionnaireGroup1!Z8</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <f>QuestionnaireGroup1!AA8</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H8" s="5">
+        <f>QuestionnaireGroup1!AB8</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="5">
+        <f>QuestionnaireGroup1!V9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <f>QuestionnaireGroup1!W9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <f>QuestionnaireGroup1!X9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <f>QuestionnaireGroup1!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <f>QuestionnaireGroup1!Z9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f>QuestionnaireGroup1!AA9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <f>QuestionnaireGroup1!AB9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="5">
+        <f>QuestionnaireGroup1!V10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <f>QuestionnaireGroup1!W10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f>QuestionnaireGroup1!X10</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <f>QuestionnaireGroup1!Y10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f>QuestionnaireGroup1!Z10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f>QuestionnaireGroup1!AA10</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="5">
+        <f>QuestionnaireGroup1!AB10</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="5">
+        <f>QuestionnaireGroup1!V11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <f>QuestionnaireGroup1!W11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <f>QuestionnaireGroup1!X11</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <f>QuestionnaireGroup1!Y11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f>QuestionnaireGroup1!Z11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f>QuestionnaireGroup1!AA11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H11" s="5">
+        <f>QuestionnaireGroup1!AB11</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="5">
+        <f>QuestionnaireGroup1!V12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <f>QuestionnaireGroup1!W12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <f>QuestionnaireGroup1!X12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f>QuestionnaireGroup1!Y12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f>QuestionnaireGroup1!Z12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f>QuestionnaireGroup1!AA12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f>QuestionnaireGroup1!AB12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="5">
+        <f>QuestionnaireGroup1!V13</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <f>QuestionnaireGroup1!W13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <f>QuestionnaireGroup1!X13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f>QuestionnaireGroup1!Y13</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <f>QuestionnaireGroup1!Z13</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G13" s="5">
+        <f>QuestionnaireGroup1!AA13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H13" s="5">
+        <f>QuestionnaireGroup1!AB13</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="5">
+        <f>QuestionnaireGroup1!V14</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <f>QuestionnaireGroup1!W14</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <f>QuestionnaireGroup1!X14</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <f>QuestionnaireGroup1!Y14</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <f>QuestionnaireGroup1!Z14</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <f>QuestionnaireGroup1!AA14</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <f>QuestionnaireGroup1!AB14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="5">
+        <f>QuestionnaireGroup1!V15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <f>QuestionnaireGroup1!W15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <f>QuestionnaireGroup1!X15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f>QuestionnaireGroup1!Y15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f>QuestionnaireGroup1!Z15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f>QuestionnaireGroup1!AA15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <f>QuestionnaireGroup1!AB15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="5">
+        <f>QuestionnaireGroup1!V16</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <f>QuestionnaireGroup1!W16</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <f>QuestionnaireGroup1!X16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <f>QuestionnaireGroup1!Y16</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <f>QuestionnaireGroup1!Z16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <f>QuestionnaireGroup1!AA16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H16" s="5">
+        <f>QuestionnaireGroup1!AB16</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="5">
+        <f>QuestionnaireGroup1!V17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <f>QuestionnaireGroup1!W17</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <f>QuestionnaireGroup1!X17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <f>QuestionnaireGroup1!Y17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <f>QuestionnaireGroup1!Z17</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G17" s="5">
+        <f>QuestionnaireGroup1!AA17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <f>QuestionnaireGroup1!AB17</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="5">
+        <f>QuestionnaireGroup1!V18</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <f>QuestionnaireGroup1!W18</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <f>QuestionnaireGroup1!X18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f>QuestionnaireGroup1!Y18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f>QuestionnaireGroup1!Z18</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <f>QuestionnaireGroup1!AA18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <f>QuestionnaireGroup1!AB18</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="5">
+        <f>QuestionnaireGroup1!V19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <f>QuestionnaireGroup1!W19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <f>QuestionnaireGroup1!X19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f>QuestionnaireGroup1!Y19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f>QuestionnaireGroup1!Z19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <f>QuestionnaireGroup1!AA19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f>QuestionnaireGroup1!AB19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="5">
+        <f>QuestionnaireGroup1!V20</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <f>QuestionnaireGroup1!W20</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <f>QuestionnaireGroup1!X20</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <f>QuestionnaireGroup1!Y20</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <f>QuestionnaireGroup1!Z20</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <f>QuestionnaireGroup1!AA20</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <f>QuestionnaireGroup1!AB20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="5">
+        <f>QuestionnaireGroup1!V21</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <f>QuestionnaireGroup1!W21</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <f>QuestionnaireGroup1!X21</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <f>QuestionnaireGroup1!Y21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f>QuestionnaireGroup1!Z21</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <f>QuestionnaireGroup1!AA21</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H21" s="5">
+        <f>QuestionnaireGroup1!AB21</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="5">
+        <f>QuestionnaireGroup1!V22</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <f>QuestionnaireGroup1!W22</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <f>QuestionnaireGroup1!X22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f>QuestionnaireGroup1!Y22</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <f>QuestionnaireGroup1!Z22</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <f>QuestionnaireGroup1!AA22</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H22" s="5">
+        <f>QuestionnaireGroup1!AB22</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="5">
+        <f>QuestionnaireGroup1!V23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <f>QuestionnaireGroup1!W23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <f>QuestionnaireGroup1!X23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <f>QuestionnaireGroup1!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f>QuestionnaireGroup1!Z23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <f>QuestionnaireGroup1!AA23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <f>QuestionnaireGroup1!AB23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="5">
+        <f>QuestionnaireGroup1!V24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <f>QuestionnaireGroup1!W24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <f>QuestionnaireGroup1!X24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f>QuestionnaireGroup1!Y24</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <f>QuestionnaireGroup1!Z24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <f>QuestionnaireGroup1!AA24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H24" s="5">
+        <f>QuestionnaireGroup1!AB24</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="5">
+        <f>QuestionnaireGroup1!V25</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <f>QuestionnaireGroup1!W25</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f>QuestionnaireGroup1!X25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <f>QuestionnaireGroup1!Y25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f>QuestionnaireGroup1!Z25</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <f>QuestionnaireGroup1!AA25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <f>QuestionnaireGroup1!AB25</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="5">
+        <f>QuestionnaireGroup1!V26</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <f>QuestionnaireGroup1!W26</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <f>QuestionnaireGroup1!X26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f>QuestionnaireGroup1!Y26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <f>QuestionnaireGroup1!Z26</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G26" s="5">
+        <f>QuestionnaireGroup1!AA26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f>QuestionnaireGroup1!AB26</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="5">
+        <f>QuestionnaireGroup1!V27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <f>QuestionnaireGroup1!W27</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <f>QuestionnaireGroup1!X27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f>QuestionnaireGroup1!Y27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <f>QuestionnaireGroup1!Z27</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G27" s="5">
+        <f>QuestionnaireGroup1!AA27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>QuestionnaireGroup1!AB27</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="5">
+        <f>QuestionnaireGroup2!V2</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <f>QuestionnaireGroup2!W2</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <f>QuestionnaireGroup2!X2</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <f>QuestionnaireGroup2!Y2</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <f>QuestionnaireGroup2!Z2</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <f>QuestionnaireGroup2!AA2</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <f>QuestionnaireGroup2!AB2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="5">
+        <f>QuestionnaireGroup2!V3</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <f>QuestionnaireGroup2!W3</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <f>QuestionnaireGroup2!X3</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <f>QuestionnaireGroup2!Y3</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <f>QuestionnaireGroup2!Z3</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <f>QuestionnaireGroup2!AA3</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <f>QuestionnaireGroup2!AB3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="5">
+        <f>QuestionnaireGroup2!V4</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <f>QuestionnaireGroup2!W4</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <f>QuestionnaireGroup2!X4</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f>QuestionnaireGroup2!Y4</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <f>QuestionnaireGroup2!Z4</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <f>QuestionnaireGroup2!AA4</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H30" s="5">
+        <f>QuestionnaireGroup2!AB4</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="5">
+        <f>QuestionnaireGroup2!V5</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <f>QuestionnaireGroup2!W5</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <f>QuestionnaireGroup2!X5</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <f>QuestionnaireGroup2!Y5</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <f>QuestionnaireGroup2!Z5</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <f>QuestionnaireGroup2!AA5</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <f>QuestionnaireGroup2!AB5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="5">
+        <f>QuestionnaireGroup2!V6</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <f>QuestionnaireGroup2!W6</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <f>QuestionnaireGroup2!X6</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <f>QuestionnaireGroup2!Y6</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <f>QuestionnaireGroup2!Z6</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <f>QuestionnaireGroup2!AA6</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <f>QuestionnaireGroup2!AB6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="5">
+        <f>QuestionnaireGroup2!V7</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
+        <f>QuestionnaireGroup2!W7</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <f>QuestionnaireGroup2!X7</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <f>QuestionnaireGroup2!Y7</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <f>QuestionnaireGroup2!Z7</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <f>QuestionnaireGroup2!AA7</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <f>QuestionnaireGroup2!AB7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" s="5">
+        <f>QuestionnaireGroup2!V8</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <f>QuestionnaireGroup2!W8</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <f>QuestionnaireGroup2!X8</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <f>QuestionnaireGroup2!Y8</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <f>QuestionnaireGroup2!Z8</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <f>QuestionnaireGroup2!AA8</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <f>QuestionnaireGroup2!AB8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="5">
+        <f>QuestionnaireGroup2!V9</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <f>QuestionnaireGroup2!W9</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <f>QuestionnaireGroup2!X9</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <f>QuestionnaireGroup2!Y9</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <f>QuestionnaireGroup2!Z9</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <f>QuestionnaireGroup2!AA9</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <f>QuestionnaireGroup2!AB9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="5">
+        <f>QuestionnaireGroup2!V10</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <f>QuestionnaireGroup2!W10</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <f>QuestionnaireGroup2!X10</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <f>QuestionnaireGroup2!Y10</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <f>QuestionnaireGroup2!Z10</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <f>QuestionnaireGroup2!AA10</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H36" s="5">
+        <f>QuestionnaireGroup2!AB10</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B37" s="5">
+        <f>QuestionnaireGroup2!V11</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <f>QuestionnaireGroup2!W11</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <f>QuestionnaireGroup2!X11</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <f>QuestionnaireGroup2!Y11</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <f>QuestionnaireGroup2!Z11</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <f>QuestionnaireGroup2!AA11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H37" s="5">
+        <f>QuestionnaireGroup2!AB11</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="5">
+        <f>QuestionnaireGroup2!V12</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <f>QuestionnaireGroup2!W12</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <f>QuestionnaireGroup2!X12</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <f>QuestionnaireGroup2!Y12</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <f>QuestionnaireGroup2!Z12</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <f>QuestionnaireGroup2!AA12</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <f>QuestionnaireGroup2!AB12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="5">
+        <f>QuestionnaireGroup2!V13</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <f>QuestionnaireGroup2!W13</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <f>QuestionnaireGroup2!X13</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <f>QuestionnaireGroup2!Y13</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <f>QuestionnaireGroup2!Z13</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <f>QuestionnaireGroup2!AA13</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <f>QuestionnaireGroup2!AB13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="5">
+        <f>QuestionnaireGroup2!V14</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <f>QuestionnaireGroup2!W14</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <f>QuestionnaireGroup2!X14</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <f>QuestionnaireGroup2!Y14</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <f>QuestionnaireGroup2!Z14</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <f>QuestionnaireGroup2!AA14</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H40" s="5">
+        <f>QuestionnaireGroup2!AB14</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="5">
+        <f>QuestionnaireGroup2!V15</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <f>QuestionnaireGroup2!W15</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <f>QuestionnaireGroup2!X15</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <f>QuestionnaireGroup2!Y15</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <f>QuestionnaireGroup2!Z15</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <f>QuestionnaireGroup2!AA15</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <f>QuestionnaireGroup2!AB15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="5">
+        <f>QuestionnaireGroup2!V16</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="5">
+        <f>QuestionnaireGroup2!W16</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <f>QuestionnaireGroup2!X16</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <f>QuestionnaireGroup2!Y16</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <f>QuestionnaireGroup2!Z16</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <f>QuestionnaireGroup2!AA16</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <f>QuestionnaireGroup2!AB16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="5">
+        <f>QuestionnaireGroup2!V17</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="5">
+        <f>QuestionnaireGroup2!W17</f>
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <f>QuestionnaireGroup2!X17</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <f>QuestionnaireGroup2!Y17</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <f>QuestionnaireGroup2!Z17</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <f>QuestionnaireGroup2!AA17</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <f>QuestionnaireGroup2!AB17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="5">
+        <f>QuestionnaireGroup2!V18</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="5">
+        <f>QuestionnaireGroup2!W18</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <f>QuestionnaireGroup2!X18</f>
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <f>QuestionnaireGroup2!Y18</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <f>QuestionnaireGroup2!Z18</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <f>QuestionnaireGroup2!AA18</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <f>QuestionnaireGroup2!AB18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="5">
+        <f>QuestionnaireGroup2!V19</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <f>QuestionnaireGroup2!W19</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <f>QuestionnaireGroup2!X19</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <f>QuestionnaireGroup2!Y19</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <f>QuestionnaireGroup2!Z19</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <f>QuestionnaireGroup2!AA19</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <f>QuestionnaireGroup2!AB19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="5">
+        <f>QuestionnaireGroup2!V20</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
+        <f>QuestionnaireGroup2!W20</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
+        <f>QuestionnaireGroup2!X20</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <f>QuestionnaireGroup2!Y20</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <f>QuestionnaireGroup2!Z20</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <f>QuestionnaireGroup2!AA20</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H46" s="5">
+        <f>QuestionnaireGroup2!AB20</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="5">
+        <f>QuestionnaireGroup2!V21</f>
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <f>QuestionnaireGroup2!W21</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <f>QuestionnaireGroup2!X21</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <f>QuestionnaireGroup2!Y21</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <f>QuestionnaireGroup2!Z21</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <f>QuestionnaireGroup2!AA21</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="5">
+        <f>QuestionnaireGroup2!AB21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="5">
+        <f>QuestionnaireGroup3!V2</f>
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <f>QuestionnaireGroup3!W2</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
+        <f>QuestionnaireGroup3!X2</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <f>QuestionnaireGroup3!Y2</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <f>QuestionnaireGroup3!Z2</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <f>QuestionnaireGroup3!AA2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H48" s="5">
+        <f>QuestionnaireGroup3!AB2</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="5">
+        <f>QuestionnaireGroup3!V3</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <f>QuestionnaireGroup3!W3</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <f>QuestionnaireGroup3!X3</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <f>QuestionnaireGroup3!Y3</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <f>QuestionnaireGroup3!Z3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G49" s="5">
+        <f>QuestionnaireGroup3!AA3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H49" s="5">
+        <f>QuestionnaireGroup3!AB3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="5">
+        <f>QuestionnaireGroup3!V4</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <f>QuestionnaireGroup3!W4</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <f>QuestionnaireGroup3!X4</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <f>QuestionnaireGroup3!Y4</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <f>QuestionnaireGroup3!Z4</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <f>QuestionnaireGroup3!AA4</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="5">
+        <f>QuestionnaireGroup3!AB4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="5">
+        <f>QuestionnaireGroup3!V5</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <f>QuestionnaireGroup3!W5</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <f>QuestionnaireGroup3!X5</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <f>QuestionnaireGroup3!Y5</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <f>QuestionnaireGroup3!Z5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G51" s="5">
+        <f>QuestionnaireGroup3!AA5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H51" s="5">
+        <f>QuestionnaireGroup3!AB5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="5">
+        <f>QuestionnaireGroup3!V6</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <f>QuestionnaireGroup3!W6</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
+        <f>QuestionnaireGroup3!X6</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <f>QuestionnaireGroup3!Y6</f>
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <f>QuestionnaireGroup3!Z6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G52" s="5">
+        <f>QuestionnaireGroup3!AA6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H52" s="5">
+        <f>QuestionnaireGroup3!AB6</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" s="5">
+        <f>QuestionnaireGroup3!V7</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
+        <f>QuestionnaireGroup3!W7</f>
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
+        <f>QuestionnaireGroup3!X7</f>
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <f>QuestionnaireGroup3!Y7</f>
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <f>QuestionnaireGroup3!Z7</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <f>QuestionnaireGroup3!AA7</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="5">
+        <f>QuestionnaireGroup3!AB7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="5">
+        <f>QuestionnaireGroup3!V8</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <f>QuestionnaireGroup3!W8</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <f>QuestionnaireGroup3!X8</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <f>QuestionnaireGroup3!Y8</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <f>QuestionnaireGroup3!Z8</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <f>QuestionnaireGroup3!AA8</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <f>QuestionnaireGroup3!AB8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="5">
+        <f>QuestionnaireGroup3!V9</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
+        <f>QuestionnaireGroup3!W9</f>
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <f>QuestionnaireGroup3!X9</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <f>QuestionnaireGroup3!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
+        <f>QuestionnaireGroup3!Z9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G55" s="5">
+        <f>QuestionnaireGroup3!AA9</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <f>QuestionnaireGroup3!AB9</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="5">
+        <f>QuestionnaireGroup3!V10</f>
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <f>QuestionnaireGroup3!W10</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <f>QuestionnaireGroup3!X10</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <f>QuestionnaireGroup3!Y10</f>
+        <v>1</v>
+      </c>
+      <c r="F56" s="5">
+        <f>QuestionnaireGroup3!Z10</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <f>QuestionnaireGroup3!AA10</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H56" s="5">
+        <f>QuestionnaireGroup3!AB10</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="5">
+        <f>QuestionnaireGroup3!V11</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <f>QuestionnaireGroup3!W11</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <f>QuestionnaireGroup3!X11</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <f>QuestionnaireGroup3!Y11</f>
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <f>QuestionnaireGroup3!Z11</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G57" s="5">
+        <f>QuestionnaireGroup3!AA11</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H57" s="5">
+        <f>QuestionnaireGroup3!AB11</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="5">
+        <f>QuestionnaireGroup3!V12</f>
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
+        <f>QuestionnaireGroup3!W12</f>
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <f>QuestionnaireGroup3!X12</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <f>QuestionnaireGroup3!Y12</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <f>QuestionnaireGroup3!Z12</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <f>QuestionnaireGroup3!AA12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H58" s="5">
+        <f>QuestionnaireGroup3!AB12</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="5">
+        <f>QuestionnaireGroup3!V13</f>
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
+        <f>QuestionnaireGroup3!W13</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <f>QuestionnaireGroup3!X13</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <f>QuestionnaireGroup3!Y13</f>
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <f>QuestionnaireGroup3!Z13</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <f>QuestionnaireGroup3!AA13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H59" s="5">
+        <f>QuestionnaireGroup3!AB13</f>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AB21"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4223,8 +6167,8 @@
     <col min="26" max="26" width="11.44140625" style="3"/>
     <col min="27" max="27" width="9.88671875" style="3" customWidth="1"/>
     <col min="28" max="28" width="18.88671875" customWidth="1"/>
-    <col min="29" max="29" width="11.5546875" style="13" customWidth="1"/>
-    <col min="30" max="30" width="7.6640625" style="13" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" customWidth="1"/>
+    <col min="30" max="30" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -4312,10 +6256,10 @@
       <c r="AB1" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" t="s">
         <v>187</v>
       </c>
       <c r="AE1" t="s">
@@ -4323,55 +6267,55 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="6">
         <v>44711</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="1">
         <v>44715.631249999999</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="1">
         <v>44715.65625</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="2">
         <v>44711.653472222199</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="2">
         <v>44711.653472222199</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="2">
         <v>44711.653472222199</v>
       </c>
       <c r="R2" s="4">
@@ -4417,11 +6361,11 @@
         <f>(Z2+AA2)/2</f>
         <v>1</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2">
         <f>IF(GESTEP(Z2,0.51),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AD2">
         <f>IF(GESTEP(AA2,0.51),1,0)</f>
         <v>1</v>
       </c>
@@ -4431,55 +6375,55 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="6">
         <v>44710</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="1">
         <v>44715.768750000003</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="1">
         <v>44715.822916666701</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="2">
         <v>44710.59375</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="2">
         <v>44710.59375</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="2">
         <v>44710.59375</v>
       </c>
       <c r="R3" s="4">
@@ -4525,11 +6469,11 @@
         <f t="shared" ref="AB3:AB21" si="9">(Z3+AA3)/2</f>
         <v>1</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3">
         <f t="shared" ref="AC3:AC21" si="10">IF(GESTEP(Z3,0.51),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3">
         <f t="shared" ref="AD3:AD21" si="11">IF(GESTEP(AA3,0.51),1,0)</f>
         <v>1</v>
       </c>
@@ -4539,55 +6483,55 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="6">
         <v>44708</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="1">
         <v>44715.995138888902</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="1">
         <v>44715.010416666701</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="2">
         <v>44708.759722222203</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="2">
         <v>44708.759722222203</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="2">
         <v>44708.759722222203</v>
       </c>
       <c r="R4" s="4">
@@ -4633,11 +6577,11 @@
         <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -4647,55 +6591,55 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="6">
         <v>44708</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="1">
         <v>44715.59375</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="1">
         <v>44715.6118055556</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="2">
         <v>44708.7368055556</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="2">
         <v>44708.7368055556</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="2">
         <v>44708.7368055556</v>
       </c>
       <c r="R5" s="4">
@@ -4741,11 +6685,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AC5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -4755,55 +6699,55 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="6">
         <v>44702</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="1">
         <v>44715.625694444403</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" t="s">
         <v>176</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="1">
         <v>44715.65625</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" t="s">
         <v>175</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="2">
         <v>44702.658333333296</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="2">
         <v>44702.658333333296</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="2">
         <v>44702.658333333296</v>
       </c>
       <c r="R6" s="4">
@@ -4849,11 +6793,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -4863,55 +6807,55 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="6">
         <v>44701</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="1">
         <v>44715.957638888904</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="1">
         <v>44715.971527777801</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="2">
         <v>44701.977083333302</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="2">
         <v>44701.977083333302</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="2">
         <v>44701.977083333302</v>
       </c>
       <c r="R7" s="4">
@@ -4957,11 +6901,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -4971,55 +6915,55 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="6">
         <v>44710</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="1">
         <v>44715.894444444399</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" t="s">
         <v>181</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="1">
         <v>44715.918749999997</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" t="s">
         <v>182</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="2">
         <v>44710.711805555598</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="2">
         <v>44710.711805555598</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="2">
         <v>44710.711805555598</v>
       </c>
       <c r="R8" s="4">
@@ -5065,11 +7009,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -5079,55 +7023,55 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="6">
         <v>44708</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="1">
         <v>44715.854166666701</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" t="s">
         <v>184</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="1">
         <v>44715.927083333299</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="2">
         <v>44708.929166666698</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="2">
         <v>44708.929166666698</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="2">
         <v>44708.929166666698</v>
       </c>
       <c r="R9" s="4">
@@ -5173,11 +7117,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -5187,55 +7131,55 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="6">
         <v>44705</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="1">
         <v>44715.804861111101</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="1">
         <v>44715.8125</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="2">
         <v>44705.604861111096</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="2">
         <v>44705.604861111096</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="2">
         <v>44705.604861111096</v>
       </c>
       <c r="R10" s="4">
@@ -5281,11 +7225,11 @@
         <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AD10">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -5295,55 +7239,55 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="6">
         <v>44704</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="1">
         <v>44715.631944444402</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="1">
         <v>44715.6381944444</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="2">
         <v>44704.430555555598</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="2">
         <v>44704.430555555598</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="2">
         <v>44704.430555555598</v>
       </c>
       <c r="R11" s="4">
@@ -5389,11 +7333,11 @@
         <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AD11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5403,55 +7347,55 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="6">
         <v>44704</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="1">
         <v>44715.668055555601</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="1">
         <v>44715.840277777803</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="2">
         <v>44704.4194444444</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="2">
         <v>44704.4194444444</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="2">
         <v>44704.4194444444</v>
       </c>
       <c r="R12" s="4">
@@ -5497,11 +7441,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AD12">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -5511,55 +7455,55 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="6">
         <v>44700</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="1">
         <v>44715.3881944444</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="1">
         <v>44715.388888888898</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="2">
         <v>44700.180555555598</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="2">
         <v>44700.180555555598</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="2">
         <v>44700.180555555598</v>
       </c>
       <c r="R13" s="4">
@@ -5605,11 +7549,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5619,55 +7563,55 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="6">
         <v>44700</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="1">
         <v>44715.252083333296</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="1">
         <v>44715.254861111098</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="2">
         <v>44700.05</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="2">
         <v>44700.05</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="2">
         <v>44700.05</v>
       </c>
       <c r="R14" s="4">
@@ -5713,11 +7657,11 @@
         <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AC14">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AD14">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -5727,55 +7671,55 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="6">
         <v>44699</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="1">
         <v>44715.528472222199</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="1">
         <v>44715.538888888899</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="2">
         <v>44699.538888888899</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="2">
         <v>44699.538888888899</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="2">
         <v>44699.538888888899</v>
       </c>
       <c r="R15" s="4">
@@ -5821,11 +7765,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AC15">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AD15">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -5835,55 +7779,55 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="6">
         <v>44699</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="1">
         <v>44715.670138888898</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="1">
         <v>44715.688888888901</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="2">
         <v>44699.480555555601</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="2">
         <v>44699.480555555601</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="2">
         <v>44699.480555555601</v>
       </c>
       <c r="R16" s="4">
@@ -5929,11 +7873,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AD16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -5943,55 +7887,55 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="6">
         <v>44698</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="1">
         <v>44715.192361111098</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" t="s">
         <v>167</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="1">
         <v>44715.710416666698</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="2">
         <v>44698.217361111099</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="2">
         <v>44698.217361111099</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="2">
         <v>44698.217361111099</v>
       </c>
       <c r="R17" s="4">
@@ -6037,11 +7981,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AD17">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -6051,55 +7995,55 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="6">
         <v>44696</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="1">
         <v>44715.811805555597</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" t="s">
         <v>167</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="1">
         <v>44715.824999999997</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="2">
         <v>44696.618055555598</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="2">
         <v>44696.618055555598</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="2">
         <v>44696.618055555598</v>
       </c>
       <c r="R18" s="4">
@@ -6145,69 +8089,69 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AC18">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD18" s="13">
+      <c r="AD18">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AE18">
         <f>IF(GESTEP(AB18,0.51),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="6">
         <v>44695</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="1">
         <v>44715.947222222203</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="1">
         <v>44715.953472222202</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="2">
         <v>44695.745833333298</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="2">
         <v>44695.745833333298</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="2">
         <v>44695.745833333298</v>
       </c>
       <c r="R19" s="4">
@@ -6253,69 +8197,69 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AC19">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AD19">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AE19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="6">
         <v>44695</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="1">
         <v>44715.777777777803</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" t="s">
         <v>72</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="1">
         <v>44715.791666666701</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="2">
         <v>44695.582638888904</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="2">
         <v>44695.582638888904</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="2">
         <v>44695.582638888904</v>
       </c>
       <c r="R20" s="4">
@@ -6361,69 +8305,69 @@
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AC20">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD20" s="13">
+      <c r="AD20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="AE20">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="6">
         <v>44694</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="1">
         <v>44715.834027777797</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="1">
         <v>44715.835416666698</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="2">
         <v>44694.836111111101</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="2">
         <v>44694.836111111101</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="2">
         <v>44694.836111111101</v>
       </c>
       <c r="R21" s="4">
@@ -6469,260 +8413,188 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AC21">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AD21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AE21">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AE22" s="13"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AE23" s="13"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F56704-215B-48B1-930B-8EED5F4BD70F}">
   <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AB13"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.44140625" style="13"/>
-    <col min="5" max="5" width="38.5546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="31.88671875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="26" style="13" customWidth="1"/>
-    <col min="10" max="10" width="50.33203125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="56.5546875" style="13" customWidth="1"/>
-    <col min="12" max="14" width="11.44140625" style="13"/>
-    <col min="15" max="15" width="15.109375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="50.33203125" customWidth="1"/>
+    <col min="11" max="11" width="56.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
     <col min="18" max="18" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.44140625" style="13" customWidth="1"/>
+    <col min="19" max="20" width="15.44140625" customWidth="1"/>
     <col min="21" max="21" width="12.109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" style="13" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" style="13" customWidth="1"/>
-    <col min="24" max="25" width="11.44140625" style="13"/>
+    <col min="22" max="22" width="8.44140625" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
     <col min="26" max="26" width="11.44140625" style="3"/>
     <col min="27" max="27" width="9.88671875" style="3" customWidth="1"/>
-    <col min="28" max="28" width="18.88671875" style="13" customWidth="1"/>
-    <col min="29" max="29" width="11.5546875" style="13" customWidth="1"/>
-    <col min="30" max="30" width="7.6640625" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="11.44140625" style="13"/>
+    <col min="28" max="28" width="18.88671875" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" customWidth="1"/>
+    <col min="30" max="30" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" t="s">
         <v>80</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" t="s">
         <v>85</v>
       </c>
       <c r="Z1" s="3" t="s">
@@ -6731,69 +8603,69 @@
       <c r="AA1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" t="s">
         <v>187</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="6">
         <v>44712</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="1">
         <v>44715.249305555597</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" t="s">
         <v>189</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="1">
         <v>44715.260416666701</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="2">
         <v>44712.248611111099</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="2">
         <v>44712.248611111099</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="2">
         <v>44712.248611111099</v>
       </c>
       <c r="R2" s="4">
@@ -6840,69 +8712,69 @@
         <f>(Z2+AA2)/2</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2">
         <f>IF(GESTEP(Z2,0.51),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AD2">
         <f>IF(GESTEP(AA2,0.51),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AE2">
         <f>IF(GESTEP(AB2,0.51),1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="6">
         <v>44711</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="1">
         <v>44715.831250000003</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="1">
         <v>44715.970138888901</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="2">
         <v>44711.639583333301</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="2">
         <v>44711.639583333301</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="2">
         <v>44711.639583333301</v>
       </c>
       <c r="R3" s="4">
@@ -6948,69 +8820,69 @@
         <f t="shared" ref="AB3:AB13" si="9">(Z3+AA3)/2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3">
         <f t="shared" ref="AC3:AE13" si="10">IF(GESTEP(Z3,0.51),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="6">
         <v>44703</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="1">
         <v>44715.565972222197</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" t="s">
         <v>193</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="1">
         <v>44715.597916666702</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" t="s">
         <v>194</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="2">
         <v>44703.764583333301</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="2">
         <v>44703.764583333301</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="2">
         <v>44703.764583333301</v>
       </c>
       <c r="R4" s="4">
@@ -7056,69 +8928,69 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD4" s="13">
+      <c r="AD4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE4" s="13">
+      <c r="AE4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="6">
         <v>44701</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="1">
         <v>44715.809027777803</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" t="s">
         <v>196</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="1">
         <v>44715.813194444403</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="2">
         <v>44701.980555555601</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="2">
         <v>44701.980555555601</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="2">
         <v>44701.980555555601</v>
       </c>
       <c r="R5" s="4">
@@ -7164,69 +9036,69 @@
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AC5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AE5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="6">
         <v>44700</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="1">
         <v>44715.225694444402</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="1">
         <v>44715.234027777798</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="2">
         <v>44700.2</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="2">
         <v>44700.2</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="2">
         <v>44700.2</v>
       </c>
       <c r="R6" s="4">
@@ -7272,69 +9144,69 @@
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AD6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE6" s="13">
+      <c r="AE6">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="6">
         <v>44703</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="1">
         <v>44715.959027777797</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" t="s">
         <v>199</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="1">
         <v>44715.005555555603</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="2">
         <v>44703.797222222202</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="2">
         <v>44703.797222222202</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="2">
         <v>44703.797222222202</v>
       </c>
       <c r="R7" s="4">
@@ -7380,69 +9252,69 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="6">
         <v>44698</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="1">
         <v>44715.790972222203</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" t="s">
         <v>201</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="1">
         <v>44715.816666666702</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" t="s">
         <v>202</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="2">
         <v>44698.609027777798</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="2">
         <v>44698.609027777798</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="2">
         <v>44698.609027777798</v>
       </c>
       <c r="R8" s="4">
@@ -7488,69 +9360,69 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="6">
         <v>44698</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="1">
         <v>44715.358333333301</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" t="s">
         <v>215</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="1">
         <v>44715.386111111096</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="2">
         <v>44698.177777777797</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="2">
         <v>44698.177777777797</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="2">
         <v>44698.177777777797</v>
       </c>
       <c r="R9" s="4">
@@ -7596,69 +9468,69 @@
         <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="AE9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="6">
         <v>44698</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="1">
         <v>44715.3347222222</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="1">
         <v>44715.381249999999</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="2">
         <v>44698.172916666699</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="2">
         <v>44698.172916666699</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="2">
         <v>44698.172916666699</v>
       </c>
       <c r="R10" s="4">
@@ -7704,69 +9576,69 @@
         <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AD10">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AE10">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="6">
         <v>44698</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="1">
         <v>44715.282638888901</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" t="s">
         <v>167</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" t="s">
         <v>209</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="1">
         <v>44715.2993055556</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" t="s">
         <v>210</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="2">
         <v>44698.094444444403</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="2">
         <v>44698.094444444403</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="2">
         <v>44698.094444444403</v>
       </c>
       <c r="R11" s="4">
@@ -7812,69 +9684,69 @@
         <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AD11">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AE11">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="6">
         <v>44697</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="1">
         <v>44715.641666666699</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" t="s">
         <v>212</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="1">
         <v>44715.625</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="2">
         <v>44697.420138888898</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="2">
         <v>44697.420138888898</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="2">
         <v>44697.420138888898</v>
       </c>
       <c r="R12" s="4">
@@ -7920,69 +9792,69 @@
         <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AD12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AE12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="6">
         <v>44696</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="1">
         <v>44715.880555555603</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="1">
         <v>44715.993750000001</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="2">
         <v>44696.786111111098</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="2">
         <v>44696.786111111098</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="2">
         <v>44696.786111111098</v>
       </c>
       <c r="R13" s="4">
@@ -8028,26 +9900,26 @@
         <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE13">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
       <c r="R14" s="4"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -8061,12 +9933,12 @@
       <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -8080,12 +9952,12 @@
       <c r="AB15" s="5"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
       <c r="R16" s="4"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -8099,12 +9971,12 @@
       <c r="AB16" s="5"/>
     </row>
     <row r="17" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="4"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -8118,12 +9990,12 @@
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
       <c r="R18" s="4"/>
       <c r="S18" s="5"/>
       <c r="U18" s="4"/>
@@ -8132,12 +10004,12 @@
       <c r="AB18" s="5"/>
     </row>
     <row r="19" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="4"/>
       <c r="S19" s="5"/>
       <c r="Z19" s="4"/>
@@ -8145,12 +10017,12 @@
       <c r="AB19" s="5"/>
     </row>
     <row r="20" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
       <c r="R20" s="4"/>
       <c r="S20" s="5"/>
       <c r="Z20" s="4"/>
@@ -8158,85 +10030,85 @@
       <c r="AB20" s="5"/>
     </row>
     <row r="21" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
       <c r="R21" s="4"/>
       <c r="S21" s="5"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
     <row r="22" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
     <row r="23" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
     <row r="24" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
     <row r="25" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
     <row r="26" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBA4398-7C71-4FB8-8A7C-2459F3D5F6F4}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -8716,16 +10588,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E366BB-1435-427B-AF28-67524651E3CF}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9091,7 +10965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4F2827-0A39-4937-940C-999FFDE62ACD}">
   <dimension ref="A1:E13"/>
   <sheetViews>
